--- a/pred_ohlcv/54_21/2019-10-18 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 HYC ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-2085816.0726</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2113260.7818</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2231622.1257</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2231031.1549</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2058171.8276</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2555908.3307</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2536202.255799999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2509343.817299999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3338214.710799999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-4913521.835499998</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3551393.367299998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3807067.464399998</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5514103.523011687</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-6988786.235811687</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-6988679.442511687</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-6988476.868311687</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-7511905.479911688</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-7511916.479911688</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-7328722.252211688</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-6590160.977511688</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-6590160.977511688</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-6720741.126411689</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-6720519.777211688</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-6720844.335411688</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-6720844.335411688</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-18 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 HYC ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-2085816.0726</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2113260.7818</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2231622.1257</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2509343.817299999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3473321.606299999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-4913521.835499998</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5327626.744699998</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3551393.367299998</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5514103.523011687</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-6988786.235811687</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-7511916.479911688</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-7328722.252211688</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-6590160.977511688</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-6590160.977511688</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-6720741.126411689</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-6720519.777211688</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-6720844.335411688</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-6720844.335411688</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
